--- a/data/trans_camb/P38A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Clase-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>-3.404650182502178</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.659399282227992</v>
+        <v>-2.659399282227981</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.702674045111985</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.237022843796554</v>
+        <v>-1.237022843796565</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-1.092058360965364</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.936879385469903</v>
+        <v>-1.936879385469914</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.171409802294974</v>
+        <v>-8.468726850066538</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.559735122147094</v>
+        <v>-7.195288098890809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.099097230460563</v>
+        <v>-2.234656077265488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.783963597964371</v>
+        <v>-5.036492977868097</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.116603273054344</v>
+        <v>-4.341136633341247</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.961179475005552</v>
+        <v>-5.126942369277701</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6472628523940298</v>
+        <v>0.5725057105384922</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.893282684605713</v>
+        <v>1.341430568625669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.189172722979605</v>
+        <v>5.916554662556045</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.60692401145926</v>
+        <v>2.730969871426648</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.947900675733742</v>
+        <v>1.673117662359459</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.114686346393845</v>
+        <v>1.035000786959691</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>-0.03747576618404281</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.02927261843316373</v>
+        <v>-0.02927261843316361</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.01852560354855984</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.01345917901930536</v>
+        <v>-0.01345917901930548</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.01196203811027703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.02121592201676826</v>
+        <v>-0.02121592201676838</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08892677850191795</v>
+        <v>-0.09127049560919805</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.0708655279633176</v>
+        <v>-0.07787066498916316</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02262934623312186</v>
+        <v>-0.02339015717898275</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05069214897022019</v>
+        <v>-0.05411381336373155</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04456324582551525</v>
+        <v>-0.04654334906830417</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05333166829860193</v>
+        <v>-0.05526768297979231</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.007309482627068696</v>
+        <v>0.00634401067886555</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02112732232711532</v>
+        <v>0.01442750990196001</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.06855141574214904</v>
+        <v>0.06732400156689966</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.04051814380652035</v>
+        <v>0.03053531399313896</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02162353176819533</v>
+        <v>0.01881811845560093</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01231931782841926</v>
+        <v>0.01148073700901064</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>-2.285820474510003</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.39651235692928</v>
+        <v>-1.396512356929291</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-3.863057034645934</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.508191573634658</v>
+        <v>-6.82814900332374</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.717935025909863</v>
+        <v>-5.888544359270545</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.733117234308391</v>
+        <v>-7.97571485000428</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.654161745889288</v>
+        <v>-8.661699487722755</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.898167771672198</v>
+        <v>-5.75453241024225</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.650595999227341</v>
+        <v>-5.893717069434931</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.361984858312063</v>
+        <v>2.20912073356023</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.996438649908547</v>
+        <v>2.609179311256509</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3922971920949934</v>
+        <v>0.443087508357882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.6453177813388692</v>
+        <v>-0.8854722696580379</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03688500387600289</v>
+        <v>0.08059306327451841</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.13625258024127</v>
+        <v>0.1027808312819751</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>-0.02528424412096792</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.01544730207131308</v>
+        <v>-0.0154473020713132</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.04107587480910459</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07061479729097429</v>
+        <v>-0.07435252854073977</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06201563043825301</v>
+        <v>-0.06330283356221998</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08143199367113295</v>
+        <v>-0.08229443619145116</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09158583773823352</v>
+        <v>-0.09042639617064917</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06286757563475028</v>
+        <v>-0.06222742186644075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06014877563317136</v>
+        <v>-0.06318554067581228</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02677275033530811</v>
+        <v>0.02425208556709565</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03394572626201671</v>
+        <v>0.02966643317284518</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.004017384334779039</v>
+        <v>0.004796822515023359</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.007675637148757295</v>
+        <v>-0.0100505991435505</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0007547675860806687</v>
+        <v>0.0007908134790111291</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001610435275512812</v>
+        <v>0.0011051694456135</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>1.205838348882893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.964824115691954</v>
+        <v>1.964824115691943</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-1.086658627685178</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.353122996545707</v>
+        <v>-5.548335217586774</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.09566083615497</v>
+        <v>-5.297722175637558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.419359805419663</v>
+        <v>-4.377198194827524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.962695920594206</v>
+        <v>-2.931495176421473</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.282362612335357</v>
+        <v>-4.306639740007321</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.46808214744039</v>
+        <v>-3.691432468321835</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.943735405850622</v>
+        <v>1.899099385376577</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.00468533634877</v>
+        <v>2.761472904390696</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.536687467441782</v>
+        <v>6.703500591693605</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.637992206709398</v>
+        <v>7.053488254675215</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.835314051437986</v>
+        <v>2.040967405470966</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.203033622752842</v>
+        <v>2.815175709090014</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>0.01322130067131081</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.02154312841673321</v>
+        <v>0.02154312841673309</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.01204336321711116</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05841149740194765</v>
+        <v>-0.06072105540916553</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05565659951514224</v>
+        <v>-0.05794070421816028</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.04709806653968731</v>
+        <v>-0.04662690634829875</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0314377676709012</v>
+        <v>-0.03114251510480588</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.04726505177416687</v>
+        <v>-0.04734248855295074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03785234445483229</v>
+        <v>-0.04040831288236282</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02197412335658595</v>
+        <v>0.02183729467789477</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03433345877692283</v>
+        <v>0.03126629576349473</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.07343955312862792</v>
+        <v>0.07608933193577375</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07526947268367937</v>
+        <v>0.08076340380082907</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02076121726985875</v>
+        <v>0.02293132932504938</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03646845996769321</v>
+        <v>0.03189660903596613</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>-0.439659599002884</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.6014600907918832</v>
+        <v>-0.601460090791861</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.872829092858755</v>
+        <v>-3.701487433001503</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.108418605232342</v>
+        <v>-5.90308263057744</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.897067493304946</v>
+        <v>-2.949334033800026</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.74150973929397</v>
+        <v>-0.9396492248277629</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.531792706071067</v>
+        <v>-2.560677532462963</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.010263272922065</v>
+        <v>-2.90979943692981</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.858539624512482</v>
+        <v>2.024955061182179</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5729108857181003</v>
+        <v>0.4074798098060834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.640409619313871</v>
+        <v>3.497580158408804</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.274275355444522</v>
+        <v>4.983773664937396</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.920406003372775</v>
+        <v>1.530991330735155</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.627620939633461</v>
+        <v>1.79296221210489</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>-0.004978777973960438</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.00681103348827653</v>
+        <v>-0.006811033488276278</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04347233695711133</v>
+        <v>-0.04147792626909209</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06816886667545291</v>
+        <v>-0.0663026283769135</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03205224119428066</v>
+        <v>-0.03268553364878878</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.008218485407540671</v>
+        <v>-0.01038066866786706</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02819873085937975</v>
+        <v>-0.02865431561345401</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03359249937608399</v>
+        <v>-0.0326817130709087</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02163622173484947</v>
+        <v>0.02319003648089156</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.006532943867842185</v>
+        <v>0.004735048650962757</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.04115873307786642</v>
+        <v>0.04020557133554855</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.06062220992247781</v>
+        <v>0.05657112742312515</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02200905021715822</v>
+        <v>0.01763792662780835</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01846469881545161</v>
+        <v>0.02059203988160348</v>
       </c>
     </row>
     <row r="28">
@@ -1252,19 +1252,19 @@
         <v>-0.7943176318924161</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-3.886285473549611</v>
+        <v>-3.886285473549633</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-2.729530650658751</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-2.647642841962539</v>
+        <v>-2.647642841962516</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-2.38418883720124</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.209587103156908</v>
+        <v>-3.209587103156941</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.40142086346729</v>
+        <v>-5.435924087134157</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.997934766184851</v>
+        <v>-9.243132250745331</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.601740228483827</v>
+        <v>-5.854702422852546</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.373370911974352</v>
+        <v>-5.253687125042388</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.830337305707415</v>
+        <v>-4.945008546620596</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.03672395965463</v>
+        <v>-5.982777742866182</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.225575039561176</v>
+        <v>3.731998596502491</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.000189997405721</v>
+        <v>1.444093217634997</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1233637288218899</v>
+        <v>-0.08341195931335937</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.09310976990147528</v>
+        <v>-0.01353569568161508</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3270141055182378</v>
+        <v>0.3991061734054351</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.3905831511210102</v>
+        <v>-0.3903416555548633</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>-0.009559738596506617</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.04677206163738681</v>
+        <v>-0.04677206163738708</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.02943997274918215</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.02855675319056502</v>
+        <v>-0.02855675319056478</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.02682903849304466</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.03611716261471119</v>
+        <v>-0.03611716261471157</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06347399787559599</v>
+        <v>-0.0634600923108867</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1050816825124026</v>
+        <v>-0.1096022935128308</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05971743418376901</v>
+        <v>-0.06281260331449254</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05733375818696884</v>
+        <v>-0.05601380461623618</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05425046127882246</v>
+        <v>-0.05504910390902938</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06768328137253969</v>
+        <v>-0.06595238853187885</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05250736519184249</v>
+        <v>0.04643043789477309</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01268778091154622</v>
+        <v>0.01762561505432598</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.00119255076418226</v>
+        <v>-0.001166534307595501</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.001292841281834861</v>
+        <v>-0.0003583387621878353</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.003339830979687418</v>
+        <v>0.004551870320535402</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.004721126866926536</v>
+        <v>-0.00452281608388704</v>
       </c>
     </row>
     <row r="34">
@@ -1412,7 +1412,7 @@
         <v>2.978251019417311</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-8.494339551208952</v>
+        <v>-8.494339551208945</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>2.45773957436759</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.71134932594568</v>
+        <v>-5.48646704092094</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-20.2345901704966</v>
+        <v>-19.32600049624415</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.2769061130472508</v>
+        <v>-0.2890682588318447</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.006327847980108</v>
+        <v>-7.267286197593942</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.096949391854598</v>
+        <v>-0.9431692903282921</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.1328621495861</v>
+        <v>-10.03071898436208</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.45369130762889</v>
+        <v>12.18751807765773</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.287755209894341</v>
+        <v>3.624310919498887</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.288080903444624</v>
+        <v>5.516021431083828</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.2545314648026172</v>
+        <v>-0.1743787780934004</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.060229414180053</v>
+        <v>5.096790318820367</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.771599359776849</v>
+        <v>-1.879160940613617</v>
       </c>
     </row>
     <row r="37">
@@ -1490,7 +1490,7 @@
         <v>0.05897405001679191</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.1682012705734319</v>
+        <v>-0.1682012705734318</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.02857456062700079</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1019795992524995</v>
+        <v>-0.105947722518136</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3780743286859518</v>
+        <v>-0.3647865003725797</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.003063514835205381</v>
+        <v>-0.003323754524111462</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.09148991029370603</v>
+        <v>-0.08362712644293403</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.01360196318459203</v>
+        <v>-0.01183903296794478</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.127412966721107</v>
+        <v>-0.1251333330641725</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2533906870601534</v>
+        <v>0.2637527706327819</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.07697773013118421</v>
+        <v>0.06864397079539786</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.06271293011614648</v>
+        <v>0.06580877135870357</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.002970002845142758</v>
+        <v>-0.002040546861710386</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.06520384183519583</v>
+        <v>0.06568134978321499</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.02266422971513423</v>
+        <v>-0.02337053342265184</v>
       </c>
     </row>
     <row r="40">
@@ -1584,7 +1584,7 @@
         <v>-0.7667424997870209</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.805980956655773</v>
+        <v>-1.805980956655762</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.602582394207613</v>
+        <v>-3.490521398161174</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.573323056990594</v>
+        <v>-4.559894967499242</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.377937688086657</v>
+        <v>-1.338259984692084</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.786924403314047</v>
+        <v>-2.667676625432857</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.964791464362465</v>
+        <v>-1.970496916049244</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.052888202006706</v>
+        <v>-3.141198701896433</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.07697433158674888</v>
+        <v>0.04342434005511121</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.5550477346358195</v>
+        <v>-0.5237183239912995</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.48001920230739</v>
+        <v>1.559852529781534</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.3466752935144581</v>
+        <v>0.4846858420494817</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.3857865544809845</v>
+        <v>0.3137556247656717</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.4463069983305582</v>
+        <v>-0.576029163519882</v>
       </c>
     </row>
     <row r="43">
@@ -1662,7 +1662,7 @@
         <v>-0.008754778656173601</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.02062095623651718</v>
+        <v>-0.02062095623651705</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.04170459470342198</v>
+        <v>-0.04062134430956719</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.05316881296269493</v>
+        <v>-0.05276574747774585</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.01526340713548186</v>
+        <v>-0.01477837936556699</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.03073089465769812</v>
+        <v>-0.02986498005963063</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.02233087327143918</v>
+        <v>-0.0224042983799244</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.03498071583026378</v>
+        <v>-0.03563045405608119</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.000902851348334538</v>
+        <v>0.0005098484735647027</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.006619298967698229</v>
+        <v>-0.006045835281713713</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.0165987808511799</v>
+        <v>0.0174968003072914</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.003880800313175488</v>
+        <v>0.005357166886485594</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.004432050106428339</v>
+        <v>0.003592625124259148</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.005474605324544737</v>
+        <v>-0.006678345332305637</v>
       </c>
     </row>
     <row r="46">
